--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Nlgn2-Nrxn2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Nlgn2-Nrxn2.xlsx
@@ -540,46 +540,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.194648666666667</v>
+        <v>2.205287</v>
       </c>
       <c r="H2">
-        <v>9.583946000000001</v>
+        <v>6.615861000000001</v>
       </c>
       <c r="I2">
-        <v>0.1104372036365826</v>
+        <v>0.08934890526417845</v>
       </c>
       <c r="J2">
-        <v>0.122064847035162</v>
+        <v>0.0954811485786439</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.2569163333333334</v>
+        <v>0.009224</v>
       </c>
       <c r="N2">
-        <v>0.770749</v>
+        <v>0.027672</v>
       </c>
       <c r="O2">
-        <v>0.2154602692984302</v>
+        <v>0.01664709506025488</v>
       </c>
       <c r="P2">
-        <v>0.2443643158836536</v>
+        <v>0.01697905168388481</v>
       </c>
       <c r="Q2">
-        <v>0.8207574217282224</v>
+        <v>0.020341567288</v>
       </c>
       <c r="R2">
-        <v>7.386816795554001</v>
+        <v>0.183074105592</v>
       </c>
       <c r="S2">
-        <v>0.02379482963610366</v>
+        <v>0.001487399719462486</v>
       </c>
       <c r="T2">
-        <v>0.02982829283919019</v>
+        <v>0.001621179356553479</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.194648666666667</v>
+        <v>2.205287</v>
       </c>
       <c r="H3">
-        <v>9.583946000000001</v>
+        <v>6.615861000000001</v>
       </c>
       <c r="I3">
-        <v>0.1104372036365826</v>
+        <v>0.08934890526417845</v>
       </c>
       <c r="J3">
-        <v>0.122064847035162</v>
+        <v>0.0954811485786439</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>1.537103</v>
       </c>
       <c r="O3">
-        <v>0.4296919312505433</v>
+        <v>0.9247000490894389</v>
       </c>
       <c r="P3">
-        <v>0.4873352064520506</v>
+        <v>0.9431393206293146</v>
       </c>
       <c r="Q3">
-        <v>1.636834683159778</v>
+        <v>1.129917754520333</v>
       </c>
       <c r="R3">
-        <v>14.731512148438</v>
+        <v>10.169259790683</v>
       </c>
       <c r="S3">
-        <v>0.04745397531251269</v>
+        <v>0.08262093708387344</v>
       </c>
       <c r="T3">
-        <v>0.05948649743041867</v>
+        <v>0.09005202560336885</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,46 +664,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.194648666666667</v>
+        <v>2.205287</v>
       </c>
       <c r="H4">
-        <v>9.583946000000001</v>
+        <v>6.615861000000001</v>
       </c>
       <c r="I4">
-        <v>0.1104372036365826</v>
+        <v>0.08934890526417845</v>
       </c>
       <c r="J4">
-        <v>0.122064847035162</v>
+        <v>0.0954811485786439</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M4">
-        <v>0.423123</v>
+        <v>0.032499</v>
       </c>
       <c r="N4">
-        <v>0.8462460000000001</v>
+        <v>0.064998</v>
       </c>
       <c r="O4">
-        <v>0.3548477994510263</v>
+        <v>0.05865285585030608</v>
       </c>
       <c r="P4">
-        <v>0.2683004776642958</v>
+        <v>0.03988162768680055</v>
       </c>
       <c r="Q4">
-        <v>1.351729327786</v>
+        <v>0.07166962221300001</v>
       </c>
       <c r="R4">
-        <v>8.110375966716001</v>
+        <v>0.430017733278</v>
       </c>
       <c r="S4">
-        <v>0.03918839868796621</v>
+        <v>0.005240568460842513</v>
       </c>
       <c r="T4">
-        <v>0.03275005676555317</v>
+        <v>0.003807943618721562</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,43 +729,43 @@
         <v>16.97794966666667</v>
       </c>
       <c r="H5">
-        <v>50.933849</v>
+        <v>50.93384900000001</v>
       </c>
       <c r="I5">
-        <v>0.5869181497900705</v>
+        <v>0.687874737549802</v>
       </c>
       <c r="J5">
-        <v>0.6487132217874599</v>
+        <v>0.7350853356881611</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.2569163333333334</v>
+        <v>0.009224</v>
       </c>
       <c r="N5">
-        <v>0.770749</v>
+        <v>0.027672</v>
       </c>
       <c r="O5">
-        <v>0.2154602692984302</v>
+        <v>0.01664709506025488</v>
       </c>
       <c r="P5">
-        <v>0.2443643158836536</v>
+        <v>0.01697905168388481</v>
       </c>
       <c r="Q5">
-        <v>4.36191257587789</v>
+        <v>0.1566046077253334</v>
       </c>
       <c r="R5">
-        <v>39.257213182901</v>
+        <v>1.409441469528</v>
       </c>
       <c r="S5">
-        <v>0.126457542609905</v>
+        <v>0.01145111614553943</v>
       </c>
       <c r="T5">
-        <v>0.1585223626467735</v>
+        <v>0.0124810519067151</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,13 +791,13 @@
         <v>16.97794966666667</v>
       </c>
       <c r="H6">
-        <v>50.933849</v>
+        <v>50.93384900000001</v>
       </c>
       <c r="I6">
-        <v>0.5869181497900705</v>
+        <v>0.687874737549802</v>
       </c>
       <c r="J6">
-        <v>0.6487132217874599</v>
+        <v>0.7350853356881611</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -812,22 +812,22 @@
         <v>1.537103</v>
       </c>
       <c r="O6">
-        <v>0.4296919312505433</v>
+        <v>0.9247000490894389</v>
       </c>
       <c r="P6">
-        <v>0.4873352064520506</v>
+        <v>0.9431393206293146</v>
       </c>
       <c r="Q6">
-        <v>8.698952455494112</v>
+        <v>8.698952455494114</v>
       </c>
       <c r="R6">
-        <v>78.290572099447</v>
+        <v>78.29057209944702</v>
       </c>
       <c r="S6">
-        <v>0.252193993269291</v>
+        <v>0.6360778035796868</v>
       </c>
       <c r="T6">
-        <v>0.3161407918679667</v>
+        <v>0.693287884105504</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,43 +853,43 @@
         <v>16.97794966666667</v>
       </c>
       <c r="H7">
-        <v>50.933849</v>
+        <v>50.93384900000001</v>
       </c>
       <c r="I7">
-        <v>0.5869181497900705</v>
+        <v>0.687874737549802</v>
       </c>
       <c r="J7">
-        <v>0.6487132217874599</v>
+        <v>0.7350853356881611</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M7">
-        <v>0.423123</v>
+        <v>0.032499</v>
       </c>
       <c r="N7">
-        <v>0.8462460000000001</v>
+        <v>0.064998</v>
       </c>
       <c r="O7">
-        <v>0.3548477994510263</v>
+        <v>0.05865285585030608</v>
       </c>
       <c r="P7">
-        <v>0.2683004776642958</v>
+        <v>0.03988162768680055</v>
       </c>
       <c r="Q7">
-        <v>7.183760996809001</v>
+        <v>0.5517663862170001</v>
       </c>
       <c r="R7">
-        <v>43.102565980854</v>
+        <v>3.310598317302001</v>
       </c>
       <c r="S7">
-        <v>0.2082666139108744</v>
+        <v>0.04034581782457566</v>
       </c>
       <c r="T7">
-        <v>0.1740500672727197</v>
+        <v>0.02931639967594205</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,46 +912,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.1410116666666667</v>
+        <v>0.32709</v>
       </c>
       <c r="H8">
-        <v>0.423035</v>
+        <v>0.9812700000000001</v>
       </c>
       <c r="I8">
-        <v>0.004874693830745886</v>
+        <v>0.01325230386015976</v>
       </c>
       <c r="J8">
-        <v>0.005387937553646458</v>
+        <v>0.01416184328325004</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.2569163333333334</v>
+        <v>0.009224</v>
       </c>
       <c r="N8">
-        <v>0.770749</v>
+        <v>0.027672</v>
       </c>
       <c r="O8">
-        <v>0.2154602692984302</v>
+        <v>0.01664709506025488</v>
       </c>
       <c r="P8">
-        <v>0.2443643158836536</v>
+        <v>0.01697905168388481</v>
       </c>
       <c r="Q8">
-        <v>0.03622820035722223</v>
+        <v>0.00301707816</v>
       </c>
       <c r="R8">
-        <v>0.326053803215</v>
+        <v>0.02715370344</v>
       </c>
       <c r="S8">
-        <v>0.001050302845519905</v>
+        <v>0.0002206123621274622</v>
       </c>
       <c r="T8">
-        <v>0.001316619674320663</v>
+        <v>0.0002404546690453793</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,16 +974,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.1410116666666667</v>
+        <v>0.32709</v>
       </c>
       <c r="H9">
-        <v>0.423035</v>
+        <v>0.9812700000000001</v>
       </c>
       <c r="I9">
-        <v>0.004874693830745886</v>
+        <v>0.01325230386015976</v>
       </c>
       <c r="J9">
-        <v>0.005387937553646458</v>
+        <v>0.01416184328325004</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -998,22 +998,22 @@
         <v>1.537103</v>
       </c>
       <c r="O9">
-        <v>0.4296919312505433</v>
+        <v>0.9247000490894389</v>
       </c>
       <c r="P9">
-        <v>0.4873352064520506</v>
+        <v>0.9431393206293146</v>
       </c>
       <c r="Q9">
-        <v>0.07224981862277778</v>
+        <v>0.16759034009</v>
       </c>
       <c r="R9">
-        <v>0.650248367605</v>
+        <v>1.50831306081</v>
       </c>
       <c r="S9">
-        <v>0.002094616606388309</v>
+        <v>0.01225440603003789</v>
       </c>
       <c r="T9">
-        <v>0.002625731660057053</v>
+        <v>0.01335659125302326</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,46 +1036,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.1410116666666667</v>
+        <v>0.32709</v>
       </c>
       <c r="H10">
-        <v>0.423035</v>
+        <v>0.9812700000000001</v>
       </c>
       <c r="I10">
-        <v>0.004874693830745886</v>
+        <v>0.01325230386015976</v>
       </c>
       <c r="J10">
-        <v>0.005387937553646458</v>
+        <v>0.01416184328325004</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M10">
-        <v>0.423123</v>
+        <v>0.032499</v>
       </c>
       <c r="N10">
-        <v>0.8462460000000001</v>
+        <v>0.064998</v>
       </c>
       <c r="O10">
-        <v>0.3548477994510263</v>
+        <v>0.05865285585030608</v>
       </c>
       <c r="P10">
-        <v>0.2683004776642958</v>
+        <v>0.03988162768680055</v>
       </c>
       <c r="Q10">
-        <v>0.05966527943500001</v>
+        <v>0.01063009791</v>
       </c>
       <c r="R10">
-        <v>0.35799167661</v>
+        <v>0.06378058746000001</v>
       </c>
       <c r="S10">
-        <v>0.001729774378837671</v>
+        <v>0.0007772854679944051</v>
       </c>
       <c r="T10">
-        <v>0.001445586219268742</v>
+        <v>0.0005647973611813953</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,46 +1098,46 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>8.266659499999999</v>
+        <v>4.7555295</v>
       </c>
       <c r="H11">
-        <v>16.533319</v>
+        <v>9.511058999999999</v>
       </c>
       <c r="I11">
-        <v>0.2857737591371413</v>
+        <v>0.1926739489130013</v>
       </c>
       <c r="J11">
-        <v>0.2105747522699458</v>
+        <v>0.1372651023833856</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>0.2569163333333334</v>
+        <v>0.009224</v>
       </c>
       <c r="N11">
-        <v>0.770749</v>
+        <v>0.027672</v>
       </c>
       <c r="O11">
-        <v>0.2154602692984302</v>
+        <v>0.01664709506025488</v>
       </c>
       <c r="P11">
-        <v>0.2443643158836536</v>
+        <v>0.01697905168388481</v>
       </c>
       <c r="Q11">
-        <v>2.123839847655167</v>
+        <v>0.043865004108</v>
       </c>
       <c r="R11">
-        <v>12.743039085931</v>
+        <v>0.263190024648</v>
       </c>
       <c r="S11">
-        <v>0.0615728911021132</v>
+        <v>0.003207461543189424</v>
       </c>
       <c r="T11">
-        <v>0.05145695528081512</v>
+        <v>0.002330631267761244</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>8.266659499999999</v>
+        <v>4.7555295</v>
       </c>
       <c r="H12">
-        <v>16.533319</v>
+        <v>9.511058999999999</v>
       </c>
       <c r="I12">
-        <v>0.2857737591371413</v>
+        <v>0.1926739489130013</v>
       </c>
       <c r="J12">
-        <v>0.2105747522699458</v>
+        <v>0.1372651023833856</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1184,22 +1184,22 @@
         <v>1.537103</v>
       </c>
       <c r="O12">
-        <v>0.4296919312505433</v>
+        <v>0.9247000490894389</v>
       </c>
       <c r="P12">
-        <v>0.4873352064520506</v>
+        <v>0.9431393206293146</v>
       </c>
       <c r="Q12">
-        <v>4.235569039142833</v>
+        <v>2.4365795536795</v>
       </c>
       <c r="R12">
-        <v>25.413414234857</v>
+        <v>14.619477322077</v>
       </c>
       <c r="S12">
-        <v>0.1227946784643658</v>
+        <v>0.1781656100181083</v>
       </c>
       <c r="T12">
-        <v>0.1026204903710634</v>
+        <v>0.1294601154079796</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,46 +1222,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>8.266659499999999</v>
+        <v>4.7555295</v>
       </c>
       <c r="H13">
-        <v>16.533319</v>
+        <v>9.511058999999999</v>
       </c>
       <c r="I13">
-        <v>0.2857737591371413</v>
+        <v>0.1926739489130013</v>
       </c>
       <c r="J13">
-        <v>0.2105747522699458</v>
+        <v>0.1372651023833856</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M13">
-        <v>0.423123</v>
+        <v>0.032499</v>
       </c>
       <c r="N13">
-        <v>0.8462460000000001</v>
+        <v>0.064998</v>
       </c>
       <c r="O13">
-        <v>0.3548477994510263</v>
+        <v>0.05865285585030608</v>
       </c>
       <c r="P13">
-        <v>0.2683004776642958</v>
+        <v>0.03988162768680055</v>
       </c>
       <c r="Q13">
-        <v>3.4978137676185</v>
+        <v>0.1545499532205</v>
       </c>
       <c r="R13">
-        <v>13.991255070474</v>
+        <v>0.618199812882</v>
       </c>
       <c r="S13">
-        <v>0.1014061895706622</v>
+        <v>0.0113008773517035</v>
       </c>
       <c r="T13">
-        <v>0.0564973066180672</v>
+        <v>0.005474355707644744</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,46 +1284,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.3470173333333333</v>
+        <v>0.4158899999999999</v>
       </c>
       <c r="H14">
-        <v>1.041052</v>
+        <v>1.24767</v>
       </c>
       <c r="I14">
-        <v>0.01199619360545975</v>
+        <v>0.01685010441285836</v>
       </c>
       <c r="J14">
-        <v>0.01325924135378575</v>
+        <v>0.01800657006655923</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>0.2569163333333334</v>
+        <v>0.009224</v>
       </c>
       <c r="N14">
-        <v>0.770749</v>
+        <v>0.027672</v>
       </c>
       <c r="O14">
-        <v>0.2154602692984302</v>
+        <v>0.01664709506025488</v>
       </c>
       <c r="P14">
-        <v>0.2443643158836536</v>
+        <v>0.01697905168388481</v>
       </c>
       <c r="Q14">
-        <v>0.08915442088311112</v>
+        <v>0.003836169359999999</v>
       </c>
       <c r="R14">
-        <v>0.8023897879480001</v>
+        <v>0.03452552423999999</v>
       </c>
       <c r="S14">
-        <v>0.002584703104788464</v>
+        <v>0.0002805052899360733</v>
       </c>
       <c r="T14">
-        <v>0.003240085442554102</v>
+        <v>0.0003057344838096022</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.3470173333333333</v>
+        <v>0.4158899999999999</v>
       </c>
       <c r="H15">
-        <v>1.041052</v>
+        <v>1.24767</v>
       </c>
       <c r="I15">
-        <v>0.01199619360545975</v>
+        <v>0.01685010441285836</v>
       </c>
       <c r="J15">
-        <v>0.01325924135378575</v>
+        <v>0.01800657006655923</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1370,22 +1370,22 @@
         <v>1.537103</v>
       </c>
       <c r="O15">
-        <v>0.4296919312505433</v>
+        <v>0.9247000490894389</v>
       </c>
       <c r="P15">
-        <v>0.4873352064520506</v>
+        <v>0.9431393206293146</v>
       </c>
       <c r="Q15">
-        <v>0.1778004613728889</v>
+        <v>0.21308858889</v>
       </c>
       <c r="R15">
-        <v>1.600204152356</v>
+        <v>1.91779730001</v>
       </c>
       <c r="S15">
-        <v>0.005154667597985417</v>
+        <v>0.01558129237773229</v>
       </c>
       <c r="T15">
-        <v>0.006461695122544744</v>
+        <v>0.01698270425943882</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,46 +1408,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.3470173333333333</v>
+        <v>0.4158899999999999</v>
       </c>
       <c r="H16">
-        <v>1.041052</v>
+        <v>1.24767</v>
       </c>
       <c r="I16">
-        <v>0.01199619360545975</v>
+        <v>0.01685010441285836</v>
       </c>
       <c r="J16">
-        <v>0.01325924135378575</v>
+        <v>0.01800657006655923</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M16">
-        <v>0.423123</v>
+        <v>0.032499</v>
       </c>
       <c r="N16">
-        <v>0.8462460000000001</v>
+        <v>0.064998</v>
       </c>
       <c r="O16">
-        <v>0.3548477994510263</v>
+        <v>0.05865285585030608</v>
       </c>
       <c r="P16">
-        <v>0.2683004776642958</v>
+        <v>0.03988162768680055</v>
       </c>
       <c r="Q16">
-        <v>0.146831015132</v>
+        <v>0.01351600911</v>
       </c>
       <c r="R16">
-        <v>0.8809860907920001</v>
+        <v>0.08109605465999999</v>
       </c>
       <c r="S16">
-        <v>0.004256822902685866</v>
+        <v>0.0009883067451899876</v>
       </c>
       <c r="T16">
-        <v>0.0035574607886869</v>
+        <v>0.0007181313233108025</v>
       </c>
     </row>
   </sheetData>
